--- a/categories.xlsx
+++ b/categories.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="301">
   <si>
     <t xml:space="preserve">grouped Venue Category</t>
   </si>
@@ -61,9 +61,6 @@
     <t xml:space="preserve"> Arcade</t>
   </si>
   <si>
-    <t xml:space="preserve">Arcade</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Art</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t xml:space="preserve"> Auto Garage</t>
   </si>
   <si>
-    <t xml:space="preserve">Car</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Baggage Locker</t>
   </si>
   <si>
@@ -199,7 +193,7 @@
     <t xml:space="preserve"> Canal</t>
   </si>
   <si>
-    <t xml:space="preserve">Canal</t>
+    <t xml:space="preserve">Outdoors</t>
   </si>
   <si>
     <t xml:space="preserve"> Canal Lock</t>
@@ -226,9 +220,6 @@
     <t xml:space="preserve"> Cave</t>
   </si>
   <si>
-    <t xml:space="preserve">Outdoors</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Center</t>
   </si>
   <si>
@@ -401,9 +392,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Gas Station</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gas station</t>
   </si>
   <si>
     <t xml:space="preserve"> Gastropub</t>
@@ -1046,8 +1034,8 @@
   </sheetPr>
   <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B92" activeCellId="0" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1109,12 +1097,12 @@
         <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
@@ -1122,7 +1110,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>5</v>
@@ -1130,15 +1118,15 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
@@ -1146,31 +1134,31 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
@@ -1178,63 +1166,63 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>7</v>
@@ -1242,79 +1230,79 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>7</v>
@@ -1322,7 +1310,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>7</v>
@@ -1330,7 +1318,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>7</v>
@@ -1338,15 +1326,15 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>7</v>
@@ -1354,111 +1342,111 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>9</v>
@@ -1466,79 +1454,79 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>9</v>
@@ -1546,7 +1534,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>5</v>
@@ -1554,15 +1542,15 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>5</v>
@@ -1570,7 +1558,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>3</v>
@@ -1578,15 +1566,15 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>7</v>
@@ -1594,7 +1582,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>3</v>
@@ -1602,47 +1590,47 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>11</v>
@@ -1650,15 +1638,15 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>9</v>
@@ -1666,135 +1654,135 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>9</v>
@@ -1802,7 +1790,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>7</v>
@@ -1810,135 +1798,135 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>9</v>
@@ -1946,7 +1934,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>9</v>
@@ -1954,7 +1942,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>5</v>
@@ -1962,15 +1950,15 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>5</v>
@@ -1978,7 +1966,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>7</v>
@@ -1986,79 +1974,79 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B126" s="0" t="s">
         <v>7</v>
@@ -2066,7 +2054,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>5</v>
@@ -2074,7 +2062,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>5</v>
@@ -2082,23 +2070,23 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>5</v>
@@ -2106,31 +2094,31 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B135" s="0" t="s">
         <v>7</v>
@@ -2138,63 +2126,63 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B143" s="0" t="s">
         <v>9</v>
@@ -2202,7 +2190,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B144" s="0" t="s">
         <v>5</v>
@@ -2210,7 +2198,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>9</v>
@@ -2218,15 +2206,15 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B147" s="0" t="s">
         <v>9</v>
@@ -2234,7 +2222,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B148" s="0" t="s">
         <v>9</v>
@@ -2242,39 +2230,39 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B153" s="0" t="s">
         <v>5</v>
@@ -2282,15 +2270,15 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>5</v>
@@ -2298,63 +2286,63 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B163" s="0" t="s">
         <v>5</v>
@@ -2362,7 +2350,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B164" s="0" t="s">
         <v>5</v>
@@ -2370,39 +2358,39 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B169" s="0" t="s">
         <v>11</v>
@@ -2410,15 +2398,15 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B171" s="0" t="s">
         <v>5</v>
@@ -2426,7 +2414,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B172" s="0" t="s">
         <v>5</v>
@@ -2434,15 +2422,15 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B174" s="0" t="s">
         <v>5</v>
@@ -2450,15 +2438,15 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B176" s="0" t="s">
         <v>5</v>
@@ -2466,7 +2454,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B177" s="0" t="s">
         <v>7</v>
@@ -2474,7 +2462,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B178" s="0" t="s">
         <v>9</v>
@@ -2482,31 +2470,31 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B182" s="0" t="s">
         <v>7</v>
@@ -2514,39 +2502,39 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B187" s="0" t="s">
         <v>9</v>
@@ -2554,7 +2542,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B188" s="0" t="s">
         <v>5</v>
@@ -2562,7 +2550,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B189" s="0" t="s">
         <v>5</v>
@@ -2570,7 +2558,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B190" s="0" t="s">
         <v>7</v>
@@ -2578,87 +2566,87 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B201" s="0" t="s">
         <v>9</v>
@@ -2666,111 +2654,111 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B215" s="0" t="s">
         <v>5</v>
@@ -2778,55 +2766,55 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B222" s="0" t="s">
         <v>5</v>
@@ -2834,15 +2822,15 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B224" s="0" t="s">
         <v>7</v>
@@ -2850,23 +2838,23 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B227" s="0" t="s">
         <v>9</v>
@@ -2874,7 +2862,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B228" s="0" t="s">
         <v>7</v>
@@ -2882,7 +2870,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B229" s="0" t="s">
         <v>5</v>
@@ -2890,39 +2878,39 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B234" s="0" t="s">
         <v>7</v>
@@ -2930,7 +2918,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B235" s="0" t="s">
         <v>7</v>
@@ -2938,7 +2926,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B236" s="0" t="s">
         <v>7</v>
@@ -2946,15 +2934,15 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B238" s="0" t="s">
         <v>7</v>
@@ -2962,7 +2950,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B239" s="0" t="s">
         <v>7</v>
@@ -2970,15 +2958,15 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B241" s="0" t="s">
         <v>7</v>
@@ -2986,23 +2974,23 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B244" s="0" t="s">
         <v>11</v>
@@ -3010,47 +2998,47 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B250" s="0" t="s">
         <v>11</v>
@@ -3058,7 +3046,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B251" s="0" t="s">
         <v>11</v>

--- a/categories.xlsx
+++ b/categories.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="288">
   <si>
     <t xml:space="preserve">grouped Venue Category</t>
   </si>
@@ -28,901 +28,862 @@
     <t xml:space="preserve">defined Venue Category</t>
   </si>
   <si>
+    <t xml:space="preserve"> Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Credit Union</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Currency Exchange</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATM</t>
   </si>
   <si>
-    <t xml:space="preserve">Bank</t>
+    <t xml:space="preserve"> Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brewery</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Distillery</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gastropub</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Irish Pub</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Karaoke Box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entertainment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lounge</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marijuana Dispensary</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nightlife Spot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Other Nightlife</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pub</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roof Deck</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Public Bathroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outdoors</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Beach</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Building</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Casino</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Castle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culture</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> College Academic Building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">College</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> College Auditorium</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> High School</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> School</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> University</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amphitheater</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arcade</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Art</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Auditorium</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Circus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Concert Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Event Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> General Entertainment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indie Movie Theater</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indie Theater</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movie Theater</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Multiplex</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Music School</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Music Venue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Playground</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Radio Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Samba School</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Theater</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Factory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fair</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Festival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Festival</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Food Stand</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Food Truck</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Organic Grocery</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Street Food Gathering</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Capitol Building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> City</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> City Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Government Building</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Town Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wedding Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chiropractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dentists Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Doctors Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eye Doctor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nursery School</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Historic Site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historic Site</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Memorial Site</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Monument / Landmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bed &amp; Breakfast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Campground</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hostel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hotel Pool</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Motel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Resort</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ski Chalet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vacation Rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> House</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dry Cleaner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laundromat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Court</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lawyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> College Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exhibit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Museum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Museum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Neighborhood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neighborhood</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office</t>
   </si>
   <si>
     <t xml:space="preserve"> Advertising Agency</t>
   </si>
   <si>
-    <t xml:space="preserve">other</t>
+    <t xml:space="preserve"> Astrologer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Construction &amp; Landscaping</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Coworking Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indoor Play Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Insurance Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Locksmith</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lottery Retailer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magirio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Moving Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Non-Profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Observatory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ouzeri</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pachinko Parlor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Photography Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Piadineria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Piercing Parlor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Planetarium</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Real Estate Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recruiting Agency</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Storage Facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tattoo Parlor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tour Provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Canal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Canal Lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cave</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fountain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Garden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Harbor / Marina</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hill</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hot Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lake</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mountain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mountain Hut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nature Preserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Other Great Outdoors</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outdoor Sculpture</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outdoors &amp; Recreation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pedestrian Plaza</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pier</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reservoir</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rest Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> River</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scenic Lookout</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Volcano</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Waterfall</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Waterfront</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Palace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palace</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aquarium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dog Run</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pet Café</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Veterinarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zoo Exhibit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plaza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plaza</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Post Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Buddhist Temple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Church</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Monastery</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mosque</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shrine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Synagogue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Temple</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bakery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bistro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brasserie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Breakfast Spot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Buffet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Butcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cafe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Café</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Churrascaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Coffee Roaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creperie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deli / Bodega</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Diner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Friterie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Joint</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kafenio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lyonese Bouchon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pastelaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tapiocaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tea Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trattoria/Osteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Winery</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transportation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Salon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shoe Repair</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boutique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hunting Supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Newsstand</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlet Mall</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sauna / Steam Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Taverna</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Speakeasy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Athletics &amp; Sports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bike Rental / Bike Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bike Trail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bowling Alley</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> College Baseball Diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> College Track</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Golf Course</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Golf Driving Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gym</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hockey Arena</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mini Golf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pool</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pool Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Racetrack</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rink</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rock Climbing Spot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ski Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Skydiving Drop Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stadium</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Surf Spot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Track</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Studio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studio</t>
   </si>
   <si>
     <t xml:space="preserve"> Airport</t>
   </si>
   <si>
-    <t xml:space="preserve">Transportation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Amphitheater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culture</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aquarium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Arcade</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Art</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Astrologer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Athletics &amp; Sports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sports</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Auditorium</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Auto Garage</t>
   </si>
   <si>
+    <t xml:space="preserve"> Boat or Ferry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bus Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bus Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bus Stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cable Car</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cruise</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gas Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> General Travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intersection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Light Rail Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metro Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Port</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rental Car Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Taxi Stand</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Toll Booth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Train</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Train Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tram Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Travel &amp; Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Travel Agency</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tunnel</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Baggage Locker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Travel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bakery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beach</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Beach</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bed &amp; Breakfast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hotel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bike Rental / Bike Share</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bike Trail</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bistro</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Boat or Ferry</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Boutique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bowling Alley</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Brasserie</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Breakfast Spot</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Brewery</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Buddhist Temple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Religion</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Buffet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Building</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bus Line</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bus Station</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bus Stop</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Butcher</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cable Car</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cafe</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Café</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Campground</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Canal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outdoors</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Canal Lock</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Capitol Building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Casino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casino</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Castle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Castle</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cave</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chiropractor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Church</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Churrascaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Circus</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> City</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> City Hall</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Club</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Coffee Roaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> College Academic Building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">College</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> College Auditorium</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> College Baseball Diamond</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> College Library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Library</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> College Track</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Concert Hall</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Construction &amp; Landscaping</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Court</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Law</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Coworking Space</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Credit Union</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Creperie</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cruise</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Currency Exchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Deli / Bodega</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dentists Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Diner</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Distillery</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Doctors Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dog Run</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dry Cleaner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laundry</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Event Space</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Exhibit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Museum</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eye Doctor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Factory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factory</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fair</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Festival</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Festival</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Food Stand</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Food Truck</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Forest</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fountain</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Friterie</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Garden</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gas Station</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gastropub</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> General Entertainment</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> General Travel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Golf Course</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Golf Driving Range</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Government Building</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gym</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Harbor / Marina</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> High School</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hill</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Historic Site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Historic Site</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hockey Arena</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hostel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hot Spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hotel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hotel Pool</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> House</t>
-  </si>
-  <si>
-    <t xml:space="preserve">House</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hunting Supply</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Indie Movie Theater</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Indie Theater</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Indoor Play Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Inn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Insurance Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Intersection</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Irish Pub</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Joint</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kafenio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Karaoke Box</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lake</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Laundromat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lawyer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Library</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Light Rail Station</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Locksmith</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lottery Retailer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lounge</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lyonese Bouchon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Magirio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Marijuana Dispensary</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Market</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Memorial Site</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Metro Station</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mini Golf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Monastery</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Monument / Landmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mosque</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Motel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mountain</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mountain Hut</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movie Theater</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Moving Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Multiplex</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Museum</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Music School</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Music Venue</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nature Preserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Neighborhood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neighborhood</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Newsstand</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nightlife Spot</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Non-Profit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nursery School</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Observatory</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Organic Grocery</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Other Great Outdoors</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Other Nightlife</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Outdoor Sculpture</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Outdoors &amp; Recreation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Outlet Mall</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ouzeri</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pachinko Parlor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Palace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palace</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pastelaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pedestrian Plaza</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pet Café</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Photography Lab</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Piadineria</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pier</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Piercing Parlor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Place</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Planetarium</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Playground</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Plaza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plaza</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pool</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pool Hall</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Port</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Post Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pub</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Public Bathroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bathroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Racetrack</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Radio Station</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Real Estate Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Recruiting Agency</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rental Car Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Reservoir</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Resort</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rest Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rink</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> River</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rock Climbing Spot</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Roof Deck</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Salon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Samba School</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sauna / Steam Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Scenic Lookout</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> School</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shoe Repair</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shop</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shrine</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ski Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ski Chalet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Skydiving Drop Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Spa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Speakeasy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speakeasy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stadium</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Storage Facility</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Store</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Street Food Gathering</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Studio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Studio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Surf Spot</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Synagogue</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tapiocaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tattoo Parlor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Taverna</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Taxi Stand</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tea Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Temple</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Theater</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Toll Booth</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tour Provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Town Hall</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Track</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trail</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Train</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Train Station</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tram Station</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trattoria/Osteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Travel &amp; Transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Travel Agency</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tunnel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> University</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vacation Rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Veterinarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Volcano</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Waterfall</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Waterfront</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wedding Hall</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Winery</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Zoo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Zoo Exhibit</t>
   </si>
 </sst>
 </file>
@@ -932,7 +893,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -953,11 +914,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1002,12 +958,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1034,8 +986,8 @@
   </sheetPr>
   <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B92" activeCellId="0" sqref="B92"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B252" activeCellId="0" sqref="B252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1056,7 +1008,7 @@
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1064,1013 +1016,1013 @@
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>7</v>
+        <v>41</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>22</v>
+        <v>46</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>22</v>
+        <v>47</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>3</v>
+        <v>79</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>3</v>
+        <v>83</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>25</v>
@@ -2078,23 +2030,23 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>25</v>
@@ -2102,954 +2054,954 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>168</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>69</v>
+        <v>176</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>36</v>
+        <v>189</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>5</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>5</v>
+        <v>189</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>22</v>
+        <v>189</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>7</v>
+        <v>197</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>9</v>
+        <v>197</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>16</v>
+        <v>197</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>16</v>
+        <v>197</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>7</v>
+        <v>197</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>25</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>16</v>
+        <v>197</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>9</v>
+        <v>197</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>7</v>
+        <v>197</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>57</v>
+        <v>221</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>30</v>
+        <v>223</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>57</v>
+        <v>225</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>22</v>
+        <v>225</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>16</v>
+        <v>228</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>57</v>
+        <v>228</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>16</v>
+        <v>228</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>25</v>
+        <v>228</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>9</v>
+        <v>235</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>57</v>
+        <v>235</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>36</v>
+        <v>240</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>44</v>
+        <v>240</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>36</v>
+        <v>240</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>116</v>
+        <v>240</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>44</v>
+        <v>240</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>22</v>
+        <v>240</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>7</v>
+        <v>240</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>22</v>
+        <v>240</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>44</v>
+        <v>262</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>9</v>
+        <v>221</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>5</v>
+        <v>221</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>60</v>
+        <v>221</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>60</v>
+        <v>221</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>57</v>
+        <v>221</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>22</v>
+        <v>221</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>57</v>
+        <v>221</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>78</v>
+        <v>221</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>30</v>
+        <v>221</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>11</v>
+        <v>221</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>57</v>
+        <v>221</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>57</v>
+        <v>221</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>57</v>
+        <v>221</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>60</v>
+        <v>221</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>22</v>
+        <v>221</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>11</v>
+        <v>221</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/categories.xlsx
+++ b/categories.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="286">
   <si>
     <t xml:space="preserve">grouped Venue Category</t>
   </si>
@@ -214,13 +214,7 @@
     <t xml:space="preserve"> Festival</t>
   </si>
   <si>
-    <t xml:space="preserve">Festival</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field</t>
   </si>
   <si>
     <t xml:space="preserve"> Food</t>
@@ -986,8 +980,8 @@
   </sheetPr>
   <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B252" activeCellId="0" sqref="B252"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1417,284 +1411,284 @@
         <v>63</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>23</v>
@@ -1702,7 +1696,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>23</v>
@@ -1710,7 +1704,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>23</v>
@@ -1718,7 +1712,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>23</v>
@@ -1726,7 +1720,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>31</v>
@@ -1734,7 +1728,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>31</v>
@@ -1742,47 +1736,47 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>23</v>
@@ -1790,7 +1784,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>23</v>
@@ -1798,7 +1792,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>23</v>
@@ -1806,7 +1800,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>23</v>
@@ -1814,7 +1808,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>23</v>
@@ -1822,7 +1816,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>23</v>
@@ -1830,7 +1824,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>23</v>
@@ -1838,7 +1832,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>23</v>
@@ -1846,7 +1840,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>23</v>
@@ -1854,7 +1848,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>23</v>
@@ -1862,7 +1856,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>23</v>
@@ -1870,7 +1864,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>23</v>
@@ -1878,7 +1872,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>23</v>
@@ -1886,7 +1880,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>23</v>
@@ -1894,7 +1888,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>23</v>
@@ -1902,7 +1896,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>23</v>
@@ -1910,7 +1904,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>23</v>
@@ -1918,7 +1912,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>23</v>
@@ -1926,7 +1920,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>23</v>
@@ -1934,7 +1928,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>23</v>
@@ -1942,7 +1936,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>23</v>
@@ -1950,7 +1944,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>23</v>
@@ -1958,7 +1952,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>23</v>
@@ -1966,7 +1960,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>25</v>
@@ -1974,7 +1968,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>25</v>
@@ -1982,7 +1976,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>25</v>
@@ -1990,7 +1984,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>25</v>
@@ -1998,7 +1992,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B126" s="0" t="s">
         <v>25</v>
@@ -2006,7 +2000,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>25</v>
@@ -2014,7 +2008,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>25</v>
@@ -2022,7 +2016,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>25</v>
@@ -2030,7 +2024,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>25</v>
@@ -2038,7 +2032,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>25</v>
@@ -2046,7 +2040,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>25</v>
@@ -2054,7 +2048,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B133" s="0" t="s">
         <v>25</v>
@@ -2062,7 +2056,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B134" s="0" t="s">
         <v>25</v>
@@ -2070,7 +2064,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B135" s="0" t="s">
         <v>25</v>
@@ -2078,7 +2072,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B136" s="0" t="s">
         <v>25</v>
@@ -2086,7 +2080,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B137" s="0" t="s">
         <v>25</v>
@@ -2094,7 +2088,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B138" s="0" t="s">
         <v>25</v>
@@ -2102,7 +2096,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B139" s="0" t="s">
         <v>25</v>
@@ -2110,7 +2104,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B140" s="0" t="s">
         <v>25</v>
@@ -2118,7 +2112,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B141" s="0" t="s">
         <v>25</v>
@@ -2126,7 +2120,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B142" s="0" t="s">
         <v>25</v>
@@ -2134,7 +2128,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B143" s="0" t="s">
         <v>25</v>
@@ -2142,7 +2136,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B144" s="0" t="s">
         <v>25</v>
@@ -2150,7 +2144,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>25</v>
@@ -2158,7 +2152,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B146" s="0" t="s">
         <v>25</v>
@@ -2166,7 +2160,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B147" s="0" t="s">
         <v>25</v>
@@ -2174,7 +2168,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B148" s="0" t="s">
         <v>25</v>
@@ -2182,7 +2176,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>25</v>
@@ -2190,15 +2184,15 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B151" s="0" t="s">
         <v>25</v>
@@ -2206,423 +2200,423 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B204" s="0" t="s">
         <v>23</v>
@@ -2630,375 +2624,375 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B251" s="0" t="s">
         <v>23</v>

--- a/categories.xlsx
+++ b/categories.xlsx
@@ -20,864 +20,795 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="286">
-  <si>
-    <t xml:space="preserve">grouped Venue Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">defined Venue Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bank</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="263">
+  <si>
+    <t xml:space="preserve">groupedVenueCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">definedVenueCategory</t>
   </si>
   <si>
     <t xml:space="preserve">Bank</t>
   </si>
   <si>
-    <t xml:space="preserve"> Credit Union</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Currency Exchange</t>
+    <t xml:space="preserve">CreditUnion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CurrencyExchange</t>
   </si>
   <si>
     <t xml:space="preserve">ATM</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bar</t>
   </si>
   <si>
-    <t xml:space="preserve"> Brewery</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Club</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Distillery</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gastropub</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Irish Pub</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Karaoke Box</t>
+    <t xml:space="preserve">Brewery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distillery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gastropub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IrishPub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KaraokeBox</t>
   </si>
   <si>
     <t xml:space="preserve">Entertainment</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lounge</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Marijuana Dispensary</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nightlife Spot</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Other Nightlife</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pub</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Roof Deck</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Public Bathroom</t>
+    <t xml:space="preserve">Lounge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MarijuanaDispensary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NightlifeSpot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OtherNightlife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RoofDeck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PublicBathroom</t>
   </si>
   <si>
     <t xml:space="preserve">other</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bay</t>
+    <t xml:space="preserve">Bay</t>
   </si>
   <si>
     <t xml:space="preserve">Outdoors</t>
   </si>
   <si>
-    <t xml:space="preserve"> Beach</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Building</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Casino</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Castle</t>
+    <t xml:space="preserve">Beach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castle</t>
   </si>
   <si>
     <t xml:space="preserve">Culture</t>
   </si>
   <si>
-    <t xml:space="preserve"> Center</t>
-  </si>
-  <si>
     <t xml:space="preserve">Center</t>
   </si>
   <si>
-    <t xml:space="preserve"> College Academic Building</t>
+    <t xml:space="preserve">CollegeAcademicBuilding</t>
   </si>
   <si>
     <t xml:space="preserve">College</t>
   </si>
   <si>
-    <t xml:space="preserve"> College Auditorium</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> High School</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> School</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> University</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Amphitheater</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Arcade</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Art</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Auditorium</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Circus</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Concert Hall</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Event Space</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> General Entertainment</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Indie Movie Theater</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Indie Theater</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movie Theater</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Multiplex</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Music School</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Music Venue</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Playground</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Radio Station</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Samba School</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Theater</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Factory</t>
+    <t xml:space="preserve">CollegeAuditorium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HighSchool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amphitheater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arcade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auditorium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConcertHall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EventSpace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneralEntertainment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndieMovieTheater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndieTheater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MovieTheater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiplex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MusicSchool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MusicVenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Playground</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RadioStation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SambaSchool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theater</t>
   </si>
   <si>
     <t xml:space="preserve">Factory</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fair</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Farm</t>
+    <t xml:space="preserve">Fair</t>
   </si>
   <si>
     <t xml:space="preserve">Farm</t>
   </si>
   <si>
-    <t xml:space="preserve"> Festival</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Food</t>
+    <t xml:space="preserve">Festival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field</t>
   </si>
   <si>
     <t xml:space="preserve">Food</t>
   </si>
   <si>
-    <t xml:space="preserve"> Food Stand</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Food Truck</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Organic Grocery</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Street Food Gathering</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Capitol Building</t>
+    <t xml:space="preserve">FoodStand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodTruck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrganicGrocery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StreetFoodGathering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapitolBuilding</t>
   </si>
   <si>
     <t xml:space="preserve">Government</t>
   </si>
   <si>
-    <t xml:space="preserve"> City</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> City Hall</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Government Building</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Town Hall</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wedding Hall</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chiropractor</t>
+    <t xml:space="preserve">City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CityHall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GovernmentBuilding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TownHall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WeddingHall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiropractor</t>
   </si>
   <si>
     <t xml:space="preserve">Health</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dentists Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Doctors Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eye Doctor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nursery School</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Historic Site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Historic Site</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Memorial Site</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Monument / Landmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bed &amp; Breakfast</t>
+    <t xml:space="preserve">DentistsOffice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoctorsOffice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EyeDoctor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NurserySchool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HistoricSite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MemorialSite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monument/Landmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bed&amp;Breakfast</t>
   </si>
   <si>
     <t xml:space="preserve">Hotel</t>
   </si>
   <si>
-    <t xml:space="preserve"> Campground</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hostel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hotel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hotel Pool</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Inn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Motel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Resort</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ski Chalet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vacation Rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> House</t>
+    <t xml:space="preserve">Campground</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hostel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HotelPool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkiChalet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VacationRental</t>
   </si>
   <si>
     <t xml:space="preserve">House</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dry Cleaner</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Laundromat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Court</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lawyer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> College Library</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Library</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Market</t>
+    <t xml:space="preserve">DryCleaner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laundromat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Court</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CollegeLibrary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library</t>
   </si>
   <si>
     <t xml:space="preserve">Market</t>
   </si>
   <si>
-    <t xml:space="preserve"> Exhibit</t>
+    <t xml:space="preserve">Exhibit</t>
   </si>
   <si>
     <t xml:space="preserve">Museum</t>
   </si>
   <si>
-    <t xml:space="preserve"> Museum</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Neighborhood</t>
-  </si>
-  <si>
     <t xml:space="preserve">Neighborhood</t>
   </si>
   <si>
-    <t xml:space="preserve"> Office</t>
-  </si>
-  <si>
     <t xml:space="preserve">Office</t>
   </si>
   <si>
-    <t xml:space="preserve"> Advertising Agency</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Astrologer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Construction &amp; Landscaping</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Coworking Space</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Indoor Play Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Insurance Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Locksmith</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lottery Retailer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Magirio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Moving Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Non-Profit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Observatory</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ouzeri</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pachinko Parlor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Photography Lab</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Piadineria</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Piercing Parlor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Planetarium</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Real Estate Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Recruiting Agency</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Storage Facility</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tattoo Parlor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tour Provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Canal</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Canal Lock</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cave</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Forest</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fountain</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Garden</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Harbor / Marina</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hill</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hot Spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lake</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mountain</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mountain Hut</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nature Preserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Other Great Outdoors</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Outdoor Sculpture</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Outdoors &amp; Recreation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pedestrian Plaza</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pier</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Reservoir</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rest Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> River</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Scenic Lookout</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trail</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Volcano</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Waterfall</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Waterfront</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Palace</t>
+    <t xml:space="preserve">AdvertisingAgency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Astrologer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction&amp;Landscaping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoworkingSpace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndoorPlayArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InsuranceOffice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locksmith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LotteryRetailer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magirio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MovingTarget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observatory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ouzeri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PachinkoParlor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhotographyLab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piadineria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PiercingParlor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planetarium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RealEstateOffice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecruitingAgency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StorageFacility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TattooParlor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TourProvider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CanalLock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fountain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harbor/Marina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HotSpring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mountain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MountainHut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NaturePreserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OtherGreatOutdoors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OutdoorSculpture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outdoors&amp;Recreation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PedestrianPlaza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reservoir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RestArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ScenicLookout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volcano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waterfall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waterfront</t>
   </si>
   <si>
     <t xml:space="preserve">Palace</t>
   </si>
   <si>
-    <t xml:space="preserve"> Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aquarium</t>
+    <t xml:space="preserve">Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquarium</t>
   </si>
   <si>
     <t xml:space="preserve">Pet</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dog Run</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pet Café</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Veterinarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Zoo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Zoo Exhibit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Place</t>
+    <t xml:space="preserve">DogRun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PetCafé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veterinarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZooExhibit</t>
   </si>
   <si>
     <t xml:space="preserve">Place</t>
   </si>
   <si>
-    <t xml:space="preserve"> Plaza</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plaza</t>
   </si>
   <si>
-    <t xml:space="preserve"> Post Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Buddhist Temple</t>
+    <t xml:space="preserve">PostOffice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BuddhistTemple</t>
   </si>
   <si>
     <t xml:space="preserve">Religion</t>
   </si>
   <si>
-    <t xml:space="preserve"> Church</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Monastery</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mosque</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shrine</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Synagogue</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Temple</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bakery</t>
+    <t xml:space="preserve">Church</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monastery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mosque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synagogue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakery</t>
   </si>
   <si>
     <t xml:space="preserve">Restaurant</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bistro</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Brasserie</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Breakfast Spot</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Buffet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Butcher</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cafe</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Café</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Churrascaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Coffee Roaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Creperie</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Deli / Bodega</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Diner</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Friterie</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Joint</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kafenio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lyonese Bouchon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pastelaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tapiocaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tea Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trattoria/Osteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Winery</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Road</t>
+    <t xml:space="preserve">Bistro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brasserie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BreakfastSpot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buffet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cafe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Café</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Churrascaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoffeeRoaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creperie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deli/Bodega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friterie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kafenio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LyoneseBouchon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pastelaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapiocaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TeaRoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trattoria/Osteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Road</t>
   </si>
   <si>
     <t xml:space="preserve">Transportation</t>
   </si>
   <si>
-    <t xml:space="preserve"> Salon</t>
-  </si>
-  <si>
     <t xml:space="preserve">Salon</t>
   </si>
   <si>
-    <t xml:space="preserve"> Service</t>
-  </si>
-  <si>
     <t xml:space="preserve">Service</t>
   </si>
   <si>
-    <t xml:space="preserve"> Shoe Repair</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Boutique</t>
+    <t xml:space="preserve">ShoeRepair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boutique</t>
   </si>
   <si>
     <t xml:space="preserve">Shop</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hunting Supply</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Newsstand</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Outlet Mall</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shop</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Store</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sauna / Steam Room</t>
+    <t xml:space="preserve">HuntingSupply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newsstand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OutletMall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sauna/SteamRoom</t>
   </si>
   <si>
     <t xml:space="preserve">Spa</t>
   </si>
   <si>
-    <t xml:space="preserve"> Spa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Taverna</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Speakeasy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Athletics &amp; Sports</t>
+    <t xml:space="preserve">Taverna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speakeasy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athletics&amp;Sports</t>
   </si>
   <si>
     <t xml:space="preserve">Sports</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bike Rental / Bike Share</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bike Trail</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bowling Alley</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> College Baseball Diamond</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> College Track</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Golf Course</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Golf Driving Range</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gym</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hockey Arena</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mini Golf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pool</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pool Hall</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Racetrack</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rink</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rock Climbing Spot</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ski Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Skydiving Drop Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stadium</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Surf Spot</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Track</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Studio</t>
+    <t xml:space="preserve">BikeRental/BikeShare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BikeTrail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BowlingAlley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CollegeBaseballDiamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CollegeTrack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GolfCourse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GolfDrivingRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gym</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HockeyArena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MiniGolf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolHall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Racetrack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RockClimbingSpot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkiArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkydivingDropZone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stadium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SurfSpot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Track</t>
   </si>
   <si>
     <t xml:space="preserve">Studio</t>
   </si>
   <si>
-    <t xml:space="preserve"> Airport</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Auto Garage</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Boat or Ferry</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bus Line</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bus Station</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bus Stop</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cable Car</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cruise</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gas Station</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> General Travel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Intersection</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Light Rail Station</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Metro Station</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Port</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rental Car Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Taxi Stand</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Toll Booth</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Train</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Train Station</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tram Station</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Travel &amp; Transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Travel Agency</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tunnel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Baggage Locker</t>
+    <t xml:space="preserve">Airport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoGarage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BoatorFerry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BusLine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BusStation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BusStop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CableCar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cruise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GasStation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneralTravel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intersection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LightRailStation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetroStation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RentalCarLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TaxiStand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TollBooth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TrainStation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TramStation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel&amp;Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TravelAgency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BaggageLocker</t>
   </si>
 </sst>
 </file>
@@ -980,8 +911,8 @@
   </sheetPr>
   <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1003,1999 +934,1999 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/categories.xlsx
+++ b/categories.xlsx
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="263">
   <si>
-    <t xml:space="preserve">groupedVenueCategory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">definedVenueCategory</t>
+    <t xml:space="preserve">grouped Venue Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">defined Venue Category</t>
   </si>
   <si>
     <t xml:space="preserve">Bank</t>
@@ -912,7 +912,7 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/categories.xlsx
+++ b/categories.xlsx
@@ -31,10 +31,10 @@
     <t xml:space="preserve">Bank</t>
   </si>
   <si>
-    <t xml:space="preserve">CreditUnion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CurrencyExchange</t>
+    <t xml:space="preserve">Credit Union</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency Exchange</t>
   </si>
   <si>
     <t xml:space="preserve">ATM</t>
@@ -55,10 +55,10 @@
     <t xml:space="preserve">Gastropub</t>
   </si>
   <si>
-    <t xml:space="preserve">IrishPub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KaraokeBox</t>
+    <t xml:space="preserve">Irish Pub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karaoke Box</t>
   </si>
   <si>
     <t xml:space="preserve">Entertainment</t>
@@ -67,22 +67,22 @@
     <t xml:space="preserve">Lounge</t>
   </si>
   <si>
-    <t xml:space="preserve">MarijuanaDispensary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NightlifeSpot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OtherNightlife</t>
+    <t xml:space="preserve">Marijuana Dispensary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nightlife Spot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Nightlife</t>
   </si>
   <si>
     <t xml:space="preserve">Pub</t>
   </si>
   <si>
-    <t xml:space="preserve">RoofDeck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PublicBathroom</t>
+    <t xml:space="preserve">Roof Deck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Bathroom</t>
   </si>
   <si>
     <t xml:space="preserve">other</t>
@@ -115,16 +115,16 @@
     <t xml:space="preserve">Center</t>
   </si>
   <si>
-    <t xml:space="preserve">CollegeAcademicBuilding</t>
+    <t xml:space="preserve">College Academic Building</t>
   </si>
   <si>
     <t xml:space="preserve">College</t>
   </si>
   <si>
-    <t xml:space="preserve">CollegeAuditorium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HighSchool</t>
+    <t xml:space="preserve">College Auditorium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High School</t>
   </si>
   <si>
     <t xml:space="preserve">School</t>
@@ -148,40 +148,40 @@
     <t xml:space="preserve">Circus</t>
   </si>
   <si>
-    <t xml:space="preserve">ConcertHall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EventSpace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneralEntertainment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IndieMovieTheater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IndieTheater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MovieTheater</t>
+    <t xml:space="preserve">Concert Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Entertainment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indie Movie Theater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indie Theater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie Theater</t>
   </si>
   <si>
     <t xml:space="preserve">Multiplex</t>
   </si>
   <si>
-    <t xml:space="preserve">MusicSchool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MusicVenue</t>
+    <t xml:space="preserve">Music School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Music Venue</t>
   </si>
   <si>
     <t xml:space="preserve">Playground</t>
   </si>
   <si>
-    <t xml:space="preserve">RadioStation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SambaSchool</t>
+    <t xml:space="preserve">Radio Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samba School</t>
   </si>
   <si>
     <t xml:space="preserve">Theater</t>
@@ -205,19 +205,19 @@
     <t xml:space="preserve">Food</t>
   </si>
   <si>
-    <t xml:space="preserve">FoodStand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoodTruck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OrganicGrocery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StreetFoodGathering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CapitolBuilding</t>
+    <t xml:space="preserve">Food Stand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Truck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organic Grocery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street Food Gathering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capitol Building</t>
   </si>
   <si>
     <t xml:space="preserve">Government</t>
@@ -226,19 +226,19 @@
     <t xml:space="preserve">City</t>
   </si>
   <si>
-    <t xml:space="preserve">CityHall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GovernmentBuilding</t>
+    <t xml:space="preserve">City Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government Building</t>
   </si>
   <si>
     <t xml:space="preserve">Town</t>
   </si>
   <si>
-    <t xml:space="preserve">TownHall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WeddingHall</t>
+    <t xml:space="preserve">Town Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wedding Hall</t>
   </si>
   <si>
     <t xml:space="preserve">Chiropractor</t>
@@ -247,34 +247,34 @@
     <t xml:space="preserve">Health</t>
   </si>
   <si>
-    <t xml:space="preserve">DentistsOffice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DoctorsOffice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EyeDoctor</t>
+    <t xml:space="preserve">Dentists Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doctors Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eye Doctor</t>
   </si>
   <si>
     <t xml:space="preserve">Hospital</t>
   </si>
   <si>
-    <t xml:space="preserve">NurserySchool</t>
+    <t xml:space="preserve">Nursery School</t>
   </si>
   <si>
     <t xml:space="preserve">Pharmacy</t>
   </si>
   <si>
-    <t xml:space="preserve">HistoricSite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MemorialSite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monument/Landmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bed&amp;Breakfast</t>
+    <t xml:space="preserve">Historic Site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memorial Site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monument / Landmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bed &amp; Breakfast</t>
   </si>
   <si>
     <t xml:space="preserve">Hotel</t>
@@ -286,7 +286,7 @@
     <t xml:space="preserve">Hostel</t>
   </si>
   <si>
-    <t xml:space="preserve">HotelPool</t>
+    <t xml:space="preserve">Hotel Pool</t>
   </si>
   <si>
     <t xml:space="preserve">Inn</t>
@@ -298,16 +298,16 @@
     <t xml:space="preserve">Resort</t>
   </si>
   <si>
-    <t xml:space="preserve">SkiChalet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VacationRental</t>
+    <t xml:space="preserve">Ski Chalet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacation Rental</t>
   </si>
   <si>
     <t xml:space="preserve">House</t>
   </si>
   <si>
-    <t xml:space="preserve">DryCleaner</t>
+    <t xml:space="preserve">Dry Cleaner</t>
   </si>
   <si>
     <t xml:space="preserve">Laundromat</t>
@@ -319,7 +319,7 @@
     <t xml:space="preserve">Lawyer</t>
   </si>
   <si>
-    <t xml:space="preserve">CollegeLibrary</t>
+    <t xml:space="preserve">College Library</t>
   </si>
   <si>
     <t xml:space="preserve">Library</t>
@@ -340,34 +340,34 @@
     <t xml:space="preserve">Office</t>
   </si>
   <si>
-    <t xml:space="preserve">AdvertisingAgency</t>
+    <t xml:space="preserve">Advertising Agency</t>
   </si>
   <si>
     <t xml:space="preserve">Astrologer</t>
   </si>
   <si>
-    <t xml:space="preserve">Construction&amp;Landscaping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoworkingSpace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IndoorPlayArea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InsuranceOffice</t>
+    <t xml:space="preserve">Construction &amp; Landscapin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coworking Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indoor Play Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insurance Office</t>
   </si>
   <si>
     <t xml:space="preserve">Locksmith</t>
   </si>
   <si>
-    <t xml:space="preserve">LotteryRetailer</t>
+    <t xml:space="preserve">Lottery Retailer</t>
   </si>
   <si>
     <t xml:space="preserve">Magirio</t>
   </si>
   <si>
-    <t xml:space="preserve">MovingTarget</t>
+    <t xml:space="preserve">Moving Target</t>
   </si>
   <si>
     <t xml:space="preserve">Non-Profit</t>
@@ -379,40 +379,40 @@
     <t xml:space="preserve">Ouzeri</t>
   </si>
   <si>
-    <t xml:space="preserve">PachinkoParlor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PhotographyLab</t>
+    <t xml:space="preserve">Pachinko Parlor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photography Lab</t>
   </si>
   <si>
     <t xml:space="preserve">Piadineria</t>
   </si>
   <si>
-    <t xml:space="preserve">PiercingParlor</t>
+    <t xml:space="preserve">Piercing Parlor</t>
   </si>
   <si>
     <t xml:space="preserve">Planetarium</t>
   </si>
   <si>
-    <t xml:space="preserve">RealEstateOffice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RecruitingAgency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StorageFacility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TattooParlor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TourProvider</t>
+    <t xml:space="preserve">Real Estate Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recruiting Agency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storage Facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tattoo Parlor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tour Provider</t>
   </si>
   <si>
     <t xml:space="preserve">Canal</t>
   </si>
   <si>
-    <t xml:space="preserve">CanalLock</t>
+    <t xml:space="preserve">Canal Lock</t>
   </si>
   <si>
     <t xml:space="preserve">Cave</t>
@@ -427,13 +427,13 @@
     <t xml:space="preserve">Garden</t>
   </si>
   <si>
-    <t xml:space="preserve">Harbor/Marina</t>
+    <t xml:space="preserve">Harbor / Marina</t>
   </si>
   <si>
     <t xml:space="preserve">Hill</t>
   </si>
   <si>
-    <t xml:space="preserve">HotSpring</t>
+    <t xml:space="preserve">Hot Spring</t>
   </si>
   <si>
     <t xml:space="preserve">Island</t>
@@ -445,22 +445,22 @@
     <t xml:space="preserve">Mountain</t>
   </si>
   <si>
-    <t xml:space="preserve">MountainHut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NaturePreserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OtherGreatOutdoors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OutdoorSculpture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outdoors&amp;Recreation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PedestrianPlaza</t>
+    <t xml:space="preserve">Mountain Hut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature Preserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Great Outdoors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outdoor Sculpture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outdoors &amp; Recreation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedestrian Plaza</t>
   </si>
   <si>
     <t xml:space="preserve">Pier</t>
@@ -469,13 +469,13 @@
     <t xml:space="preserve">Reservoir</t>
   </si>
   <si>
-    <t xml:space="preserve">RestArea</t>
+    <t xml:space="preserve">Rest Area</t>
   </si>
   <si>
     <t xml:space="preserve">River</t>
   </si>
   <si>
-    <t xml:space="preserve">ScenicLookout</t>
+    <t xml:space="preserve">Scenic Lookout</t>
   </si>
   <si>
     <t xml:space="preserve">Trail</t>
@@ -505,10 +505,10 @@
     <t xml:space="preserve">Pet</t>
   </si>
   <si>
-    <t xml:space="preserve">DogRun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PetCafé</t>
+    <t xml:space="preserve">Dog Run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pet Café</t>
   </si>
   <si>
     <t xml:space="preserve">Veterinarian</t>
@@ -517,7 +517,7 @@
     <t xml:space="preserve">Zoo</t>
   </si>
   <si>
-    <t xml:space="preserve">ZooExhibit</t>
+    <t xml:space="preserve">Zoo Exhibit</t>
   </si>
   <si>
     <t xml:space="preserve">Place</t>
@@ -526,10 +526,10 @@
     <t xml:space="preserve">Plaza</t>
   </si>
   <si>
-    <t xml:space="preserve">PostOffice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BuddhistTemple</t>
+    <t xml:space="preserve">Post Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buddhist Temple</t>
   </si>
   <si>
     <t xml:space="preserve">Religion</t>
@@ -565,7 +565,7 @@
     <t xml:space="preserve">Brasserie</t>
   </si>
   <si>
-    <t xml:space="preserve">BreakfastSpot</t>
+    <t xml:space="preserve">Breakfast Spot</t>
   </si>
   <si>
     <t xml:space="preserve">Buffet</t>
@@ -583,13 +583,13 @@
     <t xml:space="preserve">Churrascaria</t>
   </si>
   <si>
-    <t xml:space="preserve">CoffeeRoaster</t>
+    <t xml:space="preserve">Coffee Roaster</t>
   </si>
   <si>
     <t xml:space="preserve">Creperie</t>
   </si>
   <si>
-    <t xml:space="preserve">Deli/Bodega</t>
+    <t xml:space="preserve">Deli / Bodega</t>
   </si>
   <si>
     <t xml:space="preserve">Diner</t>
@@ -604,7 +604,7 @@
     <t xml:space="preserve">Kafenio</t>
   </si>
   <si>
-    <t xml:space="preserve">LyoneseBouchon</t>
+    <t xml:space="preserve">Lyonese Bouchon</t>
   </si>
   <si>
     <t xml:space="preserve">Pastelaria</t>
@@ -613,7 +613,7 @@
     <t xml:space="preserve">Tapiocaria</t>
   </si>
   <si>
-    <t xml:space="preserve">TeaRoom</t>
+    <t xml:space="preserve">Tea Room</t>
   </si>
   <si>
     <t xml:space="preserve">Trattoria/Osteria</t>
@@ -634,7 +634,7 @@
     <t xml:space="preserve">Service</t>
   </si>
   <si>
-    <t xml:space="preserve">ShoeRepair</t>
+    <t xml:space="preserve">Shoe Repair</t>
   </si>
   <si>
     <t xml:space="preserve">Boutique</t>
@@ -643,19 +643,19 @@
     <t xml:space="preserve">Shop</t>
   </si>
   <si>
-    <t xml:space="preserve">HuntingSupply</t>
+    <t xml:space="preserve">Hunting Supply</t>
   </si>
   <si>
     <t xml:space="preserve">Newsstand</t>
   </si>
   <si>
-    <t xml:space="preserve">OutletMall</t>
+    <t xml:space="preserve">Outlet Mall</t>
   </si>
   <si>
     <t xml:space="preserve">Store</t>
   </si>
   <si>
-    <t xml:space="preserve">Sauna/SteamRoom</t>
+    <t xml:space="preserve">Sauna / Steam Room</t>
   </si>
   <si>
     <t xml:space="preserve">Spa</t>
@@ -667,46 +667,46 @@
     <t xml:space="preserve">Speakeasy</t>
   </si>
   <si>
-    <t xml:space="preserve">Athletics&amp;Sports</t>
+    <t xml:space="preserve">Athletics &amp; Sports</t>
   </si>
   <si>
     <t xml:space="preserve">Sports</t>
   </si>
   <si>
-    <t xml:space="preserve">BikeRental/BikeShare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BikeTrail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BowlingAlley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CollegeBaseballDiamond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CollegeTrack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GolfCourse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GolfDrivingRange</t>
+    <t xml:space="preserve">Bike Rental / Bike Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bike Trail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowling Alley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">College Baseball Diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">College Track</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golf Course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golf Driving Range</t>
   </si>
   <si>
     <t xml:space="preserve">Gym</t>
   </si>
   <si>
-    <t xml:space="preserve">HockeyArena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MiniGolf</t>
+    <t xml:space="preserve">Hockey Arena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mini Golf</t>
   </si>
   <si>
     <t xml:space="preserve">Pool</t>
   </si>
   <si>
-    <t xml:space="preserve">PoolHall</t>
+    <t xml:space="preserve">Pool Hall</t>
   </si>
   <si>
     <t xml:space="preserve">Racetrack</t>
@@ -715,19 +715,19 @@
     <t xml:space="preserve">Rink</t>
   </si>
   <si>
-    <t xml:space="preserve">RockClimbingSpot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SkiArea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SkydivingDropZone</t>
+    <t xml:space="preserve">Rock Climbing Spot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ski Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skydiving Drop Zone</t>
   </si>
   <si>
     <t xml:space="preserve">Stadium</t>
   </si>
   <si>
-    <t xml:space="preserve">SurfSpot</t>
+    <t xml:space="preserve">Surf Spot</t>
   </si>
   <si>
     <t xml:space="preserve">Track</t>
@@ -739,40 +739,40 @@
     <t xml:space="preserve">Airport</t>
   </si>
   <si>
-    <t xml:space="preserve">AutoGarage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BoatorFerry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BusLine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BusStation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BusStop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CableCar</t>
+    <t xml:space="preserve">Auto Garage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boat or Ferry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bus Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bus Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bus Stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cable Car</t>
   </si>
   <si>
     <t xml:space="preserve">Cruise</t>
   </si>
   <si>
-    <t xml:space="preserve">GasStation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneralTravel</t>
+    <t xml:space="preserve">Gas Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Travel</t>
   </si>
   <si>
     <t xml:space="preserve">Intersection</t>
   </si>
   <si>
-    <t xml:space="preserve">LightRailStation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MetroStation</t>
+    <t xml:space="preserve">Light Rail Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metro Station</t>
   </si>
   <si>
     <t xml:space="preserve">Platform</t>
@@ -781,34 +781,34 @@
     <t xml:space="preserve">Port</t>
   </si>
   <si>
-    <t xml:space="preserve">RentalCarLocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TaxiStand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TollBooth</t>
+    <t xml:space="preserve">Rental Car Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxi Stand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toll Booth</t>
   </si>
   <si>
     <t xml:space="preserve">Train</t>
   </si>
   <si>
-    <t xml:space="preserve">TrainStation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TramStation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Travel&amp;Transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TravelAgency</t>
+    <t xml:space="preserve">Train Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tram Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel &amp; Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel Agency</t>
   </si>
   <si>
     <t xml:space="preserve">Tunnel</t>
   </si>
   <si>
-    <t xml:space="preserve">BaggageLocker</t>
+    <t xml:space="preserve">Baggage Locker</t>
   </si>
 </sst>
 </file>
@@ -911,8 +911,8 @@
   </sheetPr>
   <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -922,10 +922,10 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
